--- a/dev/distances/Levenshtein/pairs_distances.xlsx
+++ b/dev/distances/Levenshtein/pairs_distances.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
-    <t>liner</t>
-  </si>
-  <si>
-    <t>fs</t>
-  </si>
-  <si>
-    <t>rebar</t>
-  </si>
-  <si>
-    <t>za</t>
-  </si>
-  <si>
-    <t>guiders</t>
-  </si>
-  <si>
-    <t>adms</t>
-  </si>
-  <si>
-    <t>guide</t>
-  </si>
-  <si>
-    <t>ubd</t>
-  </si>
-  <si>
-    <t>mpb</t>
-  </si>
-  <si>
-    <t>lab</t>
+    <t>management</t>
+  </si>
+  <si>
+    <t>modul</t>
+  </si>
+  <si>
+    <t>shifting</t>
+  </si>
+  <si>
+    <t>tuning</t>
+  </si>
+  <si>
+    <t>burner</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>landing</t>
+  </si>
+  <si>
+    <t>rig</t>
+  </si>
+  <si>
+    <t>transverse</t>
   </si>
 </sst>
 </file>
@@ -444,34 +444,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J2">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -479,34 +479,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -514,34 +514,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -549,34 +549,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0.25</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -584,34 +584,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>0.25</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K6">
-        <v>7</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -619,34 +619,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="J7">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -654,34 +654,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>0.2</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="J8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -689,34 +689,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="H9">
-        <v>3</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>0.2352941176470588</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -724,34 +724,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="H10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>0.1538461538461539</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -759,34 +759,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>0.5</v>
       </c>
       <c r="G11">
-        <v>4</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
